--- a/MATLAB/Parameter_Estimation_Results/InitialGuesses_100_Simulations.xlsx
+++ b/MATLAB/Parameter_Estimation_Results/InitialGuesses_100_Simulations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/MATLAB/Parameter_Estimation_Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echacinr\OneDrive - University at Buffalo\Desktop\LayeredSpheres_DDSdesign-master\MATLAB\Parameter_Estimation_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1599" documentId="8_{377A4B66-94C1-46C3-9A32-48D5C050DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2EB80E-711A-42D4-942A-F57D3E2C4972}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAF38B7-996E-4740-8E8A-A5A019476CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{09A30B2E-17FF-4446-8F1B-C0B7429E7DA2}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C73AAA-D2A2-4828-9D04-348A11ADEA54}">
   <dimension ref="A1:AA173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L56" sqref="L56:P102"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -7755,8 +7755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B201B50-B54B-4EF3-A79F-C9D571970C2D}">
   <dimension ref="A1:AA173"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15227,8 +15227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E2639-5FB8-431C-AFA4-FC3B9B760B3B}">
   <dimension ref="A1:DG173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>9.66</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V3">
         <v>0</v>
